--- a/code/Jichong/moduel_dictionary_models.xlsx
+++ b/code/Jichong/moduel_dictionary_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb576802\Documents\non-work\GWU\Capstone\Github folders\Capstone\code\Jichong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193E0196-85D1-4D03-A909-42736D4E7CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB4D08-858E-4DD8-82CE-583C4B715BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F449D38-8939-4DD5-8418-8E65FDF5F64A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
   <si>
     <t>Class</t>
   </si>
@@ -145,24 +145,9 @@
     <t>RandomForest</t>
   </si>
   <si>
-    <t>Random_Forest_Feature_Importances_Plot()</t>
-  </si>
-  <si>
-    <t>only applies to RF</t>
-  </si>
-  <si>
-    <t>only applies to DT</t>
-  </si>
-  <si>
-    <t>class_baseline_gradient_boosting</t>
-  </si>
-  <si>
     <t>class_baseline_gaussian_nb</t>
   </si>
   <si>
-    <t>class_baseline_random_forest</t>
-  </si>
-  <si>
     <t>Class - baseline models</t>
   </si>
   <si>
@@ -206,13 +191,131 @@
   </si>
   <si>
     <t>PCA_Reduced_Feature()</t>
+  </si>
+  <si>
+    <t>Calc_Plot_VIF()</t>
+  </si>
+  <si>
+    <t>calculate top corr coef</t>
+  </si>
+  <si>
+    <t>plot top corr coef heatmap</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">calculate features VIF and sorted with a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>barh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plot</t>
+    </r>
+  </si>
+  <si>
+    <t>AutoML</t>
+  </si>
+  <si>
+    <t>class_decision_tree</t>
+  </si>
+  <si>
+    <t>class_random_forest</t>
+  </si>
+  <si>
+    <t>Model_Predict()</t>
+  </si>
+  <si>
+    <t>Model_Report()</t>
+  </si>
+  <si>
+    <t>Model_Accuracy()</t>
+  </si>
+  <si>
+    <t>Model_RMSE()</t>
+  </si>
+  <si>
+    <t>Model_Confusion_Matrix()</t>
+  </si>
+  <si>
+    <t>Plot_Confusion_Matrix()</t>
+  </si>
+  <si>
+    <t>Plot_Decision_Tree()</t>
+  </si>
+  <si>
+    <t>Plot_ROC_AUC()</t>
+  </si>
+  <si>
+    <t>Plot_Random_Forest_Feature_Importances()</t>
+  </si>
+  <si>
+    <t>Model_ROC_AUC_Score()</t>
+  </si>
+  <si>
+    <t>Model_F1()</t>
+  </si>
+  <si>
+    <t>Model_Results_Table()</t>
+  </si>
+  <si>
+    <t>Plot_ROC_Combined()</t>
+  </si>
+  <si>
+    <t>only applies to DecisionTree and Random Forest</t>
+  </si>
+  <si>
+    <t>class_knn</t>
+  </si>
+  <si>
+    <t>class_svm</t>
+  </si>
+  <si>
+    <t>class_logistic</t>
+  </si>
+  <si>
+    <t>__init__ includes:</t>
+  </si>
+  <si>
+    <t>class_gaussian_nb</t>
+  </si>
+  <si>
+    <t>class_gradient_boosting</t>
+  </si>
+  <si>
+    <t>only applies to Random Forest</t>
+  </si>
+  <si>
+    <t>class_xgboost</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Calc_Top_Corr()</t>
+  </si>
+  <si>
+    <t>Plot_Heatmap_Top_Corr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +374,20 @@
       <color theme="4"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -356,15 +473,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -391,9 +505,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -427,7 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -438,17 +548,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,13 +566,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,161 +883,158 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Z68"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="34" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="34" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.33203125" style="34" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="31" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="5.58203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.33203125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="32.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="15.5">
+      <c r="A1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="46" t="s">
-        <v>48</v>
-      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="46"/>
       <c r="L1" s="46"/>
       <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" ht="15.5">
-      <c r="A2" s="22" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="15.5">
+      <c r="A2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="J2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="L2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="M2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="45" t="s">
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="29">
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="41">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="41">
-        <v>1</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>49</v>
+      <c r="K3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="26">
+      <c r="O3" s="24">
         <v>1</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="P3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -927,115 +1043,127 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="41">
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="26">
+      <c r="B4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="35">
         <v>2</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="24">
+        <v>2</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="10"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="41">
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="26">
+      <c r="B5" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="35">
         <v>3</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="24">
+        <v>3</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="10"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="41">
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="26">
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="35">
         <v>4</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="F6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="24">
+        <v>4</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1044,33 +1172,37 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="26">
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="24">
+        <v>5</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1079,33 +1211,37 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="26">
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="24">
+        <v>6</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1114,67 +1250,75 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="26">
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
-      <c r="Q9" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="B9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="24">
+        <v>7</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="12"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="26">
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="24">
         <v>8</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>19</v>
+      <c r="P10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1184,31 +1328,28 @@
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="39">
+      <c r="O11" s="24">
         <v>9</v>
       </c>
-      <c r="Q11" s="35" t="s">
-        <v>31</v>
-      </c>
+      <c r="P11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1217,31 +1358,30 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="26">
+      <c r="O12" s="24">
         <v>10</v>
       </c>
-      <c r="Q12" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="P12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1250,37 +1390,30 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="24">
-        <v>2</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="39">
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="24">
         <v>11</v>
       </c>
-      <c r="Q13" s="35" t="s">
-        <v>28</v>
+      <c r="P13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="42" t="s">
+        <v>78</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1290,35 +1423,30 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="24"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="26">
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="24">
         <v>12</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="P14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1326,28 +1454,29 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="24"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="35"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="24">
+        <v>13</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -1356,28 +1485,31 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="24"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="10"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="24">
+        <v>14</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1386,28 +1518,31 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="24"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="10"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="24">
+        <v>15</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>52</v>
+      </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -1416,28 +1551,31 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="24"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="10"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="24">
+        <v>16</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1446,30 +1584,27 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="24"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="10"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="24">
+        <v>17</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="42"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1478,28 +1613,27 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="24"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="10"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="24">
+        <v>18</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="42"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -1508,28 +1642,25 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="24"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="10"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -1538,28 +1669,25 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="24"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="10"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -1568,30 +1696,25 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="24"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="10"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -1600,35 +1723,26 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="29">
-        <v>3</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="3"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -1636,28 +1750,25 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="29"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="10"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -1666,28 +1777,25 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="29"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="10"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -1696,28 +1804,25 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="29"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="10"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -1726,28 +1831,25 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="29"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="13"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -1756,28 +1858,25 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="29"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="13"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -1786,28 +1885,25 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="29"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="13"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -1816,28 +1912,25 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="29"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="13"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -1846,28 +1939,25 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="29"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="13"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -1876,34 +1966,25 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="24">
-        <v>4</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="13"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -1912,28 +1993,25 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26">
-      <c r="A34" s="24"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="13"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -1942,28 +2020,25 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26">
-      <c r="A35" s="24"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="13"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -1972,28 +2047,25 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26">
-      <c r="A36" s="24"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="13"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -2002,28 +2074,25 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26">
-      <c r="A37" s="24"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="13"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -2032,28 +2101,25 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26">
-      <c r="A38" s="24"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="13"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -2062,28 +2128,25 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26">
-      <c r="A39" s="24"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="13"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -2092,28 +2155,25 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26">
-      <c r="A40" s="24"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="13"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -2122,28 +2182,25 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26">
-      <c r="A41" s="24"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="13"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
@@ -2152,34 +2209,25 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26">
-      <c r="A42" s="29">
-        <v>5</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="13"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
@@ -2188,28 +2236,25 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26">
-      <c r="A43" s="29"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="13"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
@@ -2218,28 +2263,25 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26">
-      <c r="A44" s="29"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="13"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
@@ -2248,28 +2290,25 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26">
-      <c r="A45" s="29"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="13"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
@@ -2278,28 +2317,25 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="29"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="13"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -2308,28 +2344,25 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="29"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="13"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
@@ -2338,28 +2371,25 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="29"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="13"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -2368,28 +2398,25 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="29"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="13"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -2398,28 +2425,25 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="29"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="13"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="27"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -2428,34 +2452,31 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="24">
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="22">
         <v>6</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="13"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
@@ -2464,28 +2485,25 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="24"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="13"/>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -2494,28 +2512,25 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="24"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="13"/>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -2524,28 +2539,25 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-    </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="24"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="13"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
@@ -2554,28 +2566,25 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="24"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="13"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
@@ -2584,28 +2593,25 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
-      <c r="Z55" s="1"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="24"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="13"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
@@ -2614,28 +2620,25 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="24"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="13"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
@@ -2644,28 +2647,25 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="24"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="13"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
@@ -2674,28 +2674,25 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="24"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="13"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
@@ -2704,33 +2701,30 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-    </row>
-    <row r="60" spans="1:26">
-      <c r="A60" s="23">
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="21">
         <v>7</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="28"/>
+      <c r="B60" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="7"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -2740,26 +2734,23 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-    </row>
-    <row r="61" spans="1:26">
+    </row>
+    <row r="61" spans="1:25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="28"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="7"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -2769,26 +2760,23 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-    </row>
-    <row r="62" spans="1:26">
+    </row>
+    <row r="62" spans="1:25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="28"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="7"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -2798,26 +2786,23 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-    </row>
-    <row r="63" spans="1:26">
+    </row>
+    <row r="63" spans="1:25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="28"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="7"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -2827,26 +2812,23 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-    </row>
-    <row r="64" spans="1:26">
+    </row>
+    <row r="64" spans="1:25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="28"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="7"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -2856,74 +2838,67 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-    </row>
-    <row r="65" spans="4:14">
-      <c r="D65" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="21"/>
-    </row>
-    <row r="66" spans="4:14">
-      <c r="D66" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="21"/>
-    </row>
-    <row r="67" spans="4:14">
-      <c r="D67" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="21"/>
-    </row>
-    <row r="68" spans="4:14">
-      <c r="D68" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="21"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="21"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="D65" s="19"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="19"/>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="D66" s="19"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="19"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="D67" s="19"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="19"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="D68" s="19"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="19"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
+  <mergeCells count="5">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2942,56 +2917,56 @@
   <cols>
     <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1"/>
@@ -3005,15 +2980,15 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1"/>
@@ -3021,21 +2996,21 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1"/>
@@ -3043,21 +3018,21 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1"/>
@@ -3071,11 +3046,11 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1"/>
@@ -3089,11 +3064,11 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="1"/>
@@ -3107,11 +3082,11 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="1"/>
@@ -3119,17 +3094,17 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1"/>
@@ -3143,11 +3118,11 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="1"/>
@@ -3161,11 +3136,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="1"/>
@@ -3179,11 +3154,11 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="1"/>
@@ -3197,11 +3172,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -3217,11 +3192,11 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3233,11 +3208,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3249,11 +3224,11 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3265,10 +3240,10 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3281,10 +3256,10 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3297,10 +3272,10 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3313,11 +3288,11 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -3329,11 +3304,11 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3345,11 +3320,11 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3361,11 +3336,11 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3377,11 +3352,11 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3393,11 +3368,11 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3409,11 +3384,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3425,11 +3400,11 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3441,11 +3416,11 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3457,11 +3432,11 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3473,11 +3448,11 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3489,11 +3464,11 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3505,11 +3480,11 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3521,11 +3496,11 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3537,11 +3512,11 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3553,11 +3528,11 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3569,11 +3544,11 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3585,11 +3560,11 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3601,11 +3576,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3617,11 +3592,11 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3633,11 +3608,11 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3649,9 +3624,9 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="12"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -3667,7 +3642,7 @@
     <row r="43" spans="1:14">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -3683,7 +3658,7 @@
     <row r="44" spans="1:14">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -3699,7 +3674,7 @@
     <row r="45" spans="1:14">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -3715,7 +3690,7 @@
     <row r="46" spans="1:14">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -3750,53 +3725,53 @@
   <cols>
     <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="1"/>
@@ -3810,13 +3785,13 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="1"/>
@@ -3824,37 +3799,37 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3866,13 +3841,13 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3884,13 +3859,13 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3902,31 +3877,31 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="12"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3938,13 +3913,13 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3956,13 +3931,13 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3974,17 +3949,17 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3996,13 +3971,13 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4014,13 +3989,13 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="10"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4032,13 +4007,13 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4050,13 +4025,13 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4068,13 +4043,13 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4086,13 +4061,13 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4104,13 +4079,13 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4122,13 +4097,13 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4140,17 +4115,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4162,13 +4137,13 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4180,13 +4155,13 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4198,13 +4173,13 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4216,13 +4191,13 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4234,13 +4209,13 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4252,13 +4227,13 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4270,13 +4245,13 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4288,13 +4263,13 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4306,17 +4281,17 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4328,13 +4303,13 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4346,13 +4321,13 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="16" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -4364,13 +4339,13 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="16" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4382,13 +4357,13 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="16" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4400,13 +4375,13 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="16" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4418,13 +4393,13 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16" t="s">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4436,13 +4411,13 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="16" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4454,13 +4429,13 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="16" t="s">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4474,7 +4449,7 @@
     <row r="40" spans="1:14">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -4490,7 +4465,7 @@
     <row r="41" spans="1:14">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -4506,7 +4481,7 @@
     <row r="42" spans="1:14">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="8"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -4522,7 +4497,7 @@
     <row r="43" spans="1:14">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="8"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -4538,7 +4513,7 @@
     <row r="44" spans="1:14">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>

--- a/code/Jichong/moduel_dictionary_models.xlsx
+++ b/code/Jichong/moduel_dictionary_models.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb576802\Documents\non-work\GWU\Capstone\Github folders\Capstone\code\Jichong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB4D08-858E-4DD8-82CE-583C4B715BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2C6A9C-C126-4199-A2AE-3C4F1C209EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F449D38-8939-4DD5-8418-8E65FDF5F64A}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F449D38-8939-4DD5-8418-8E65FDF5F64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Option3" sheetId="3" r:id="rId1"/>
     <sheet name="Option2" sheetId="2" r:id="rId2"/>
     <sheet name="Option1" sheetId="1" r:id="rId3"/>
+    <sheet name="for PPT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="90">
   <si>
     <t>Class</t>
   </si>
@@ -155,9 +156,6 @@
   </si>
   <si>
     <t>class_featurewiz</t>
-  </si>
-  <si>
-    <t>class_eaturetools</t>
   </si>
   <si>
     <t>class_efeaturing</t>
@@ -309,6 +307,30 @@
   </si>
   <si>
     <t>Plot_Heatmap_Top_Corr</t>
+  </si>
+  <si>
+    <t>Model_Mean_Accuracy()</t>
+  </si>
+  <si>
+    <t>k-fold</t>
+  </si>
+  <si>
+    <t>class_featuretools</t>
+  </si>
+  <si>
+    <t>TPOT</t>
+  </si>
+  <si>
+    <t>featurewiz</t>
+  </si>
+  <si>
+    <t>featuretools</t>
+  </si>
+  <si>
+    <t>Class - feature engineering</t>
+  </si>
+  <si>
+    <t>PCA</t>
   </si>
 </sst>
 </file>
@@ -473,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -571,6 +593,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,10 +622,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,8 +931,8 @@
   </sheetPr>
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -910,37 +956,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="43" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" ht="15.5">
       <c r="A2" s="20" t="s">
@@ -988,7 +1034,7 @@
       <c r="O2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="44" t="s">
         <v>24</v>
       </c>
       <c r="Q2" s="5" t="s">
@@ -1000,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="28"/>
@@ -1017,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>22</v>
@@ -1032,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1049,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>34</v>
@@ -1068,14 +1114,14 @@
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
       <c r="M4" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="24">
         <v>2</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1091,8 +1137,8 @@
       <c r="A5" s="27">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>73</v>
+      <c r="B5" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>9</v>
@@ -1102,7 +1148,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -1111,14 +1157,14 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="24">
         <v>3</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1135,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>10</v>
@@ -1145,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -1154,16 +1200,18 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="24">
         <v>4</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1178,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>32</v>
@@ -1193,14 +1241,14 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="24">
         <v>5</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1217,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>11</v>
@@ -1232,14 +1280,14 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
       <c r="M8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="24">
         <v>6</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1256,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="37"/>
@@ -1271,14 +1319,14 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
       <c r="M9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="24">
         <v>7</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1295,10 +1343,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="35"/>
@@ -1315,11 +1363,9 @@
         <v>8</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="42" t="s">
-        <v>71</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1347,9 +1393,11 @@
         <v>9</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="Q11" s="42" t="s">
+        <v>70</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -1379,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1410,11 +1458,9 @@
         <v>11</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="42" t="s">
-        <v>78</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1443,9 +1489,11 @@
         <v>12</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="Q14" s="42" t="s">
+        <v>77</v>
+      </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -1474,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1505,11 +1553,9 @@
         <v>14</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q16" s="42" t="s">
-        <v>54</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -1538,10 +1584,10 @@
         <v>15</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1571,10 +1617,10 @@
         <v>16</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1603,8 +1649,12 @@
       <c r="O19" s="24">
         <v>17</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="42"/>
+      <c r="P19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>52</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1658,9 +1708,11 @@
       <c r="L21" s="29"/>
       <c r="M21" s="15"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="24"/>
+      <c r="O21" s="24">
+        <v>19</v>
+      </c>
       <c r="P21" s="11"/>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="42"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -1848,7 +1900,7 @@
       <c r="M28" s="19"/>
       <c r="N28" s="12"/>
       <c r="O28" s="25"/>
-      <c r="P28" s="48"/>
+      <c r="P28" s="43"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
@@ -1875,7 +1927,7 @@
       <c r="M29" s="19"/>
       <c r="N29" s="12"/>
       <c r="O29" s="25"/>
-      <c r="P29" s="48"/>
+      <c r="P29" s="43"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -1902,7 +1954,7 @@
       <c r="M30" s="19"/>
       <c r="N30" s="12"/>
       <c r="O30" s="25"/>
-      <c r="P30" s="48"/>
+      <c r="P30" s="43"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -1929,7 +1981,7 @@
       <c r="M31" s="19"/>
       <c r="N31" s="12"/>
       <c r="O31" s="25"/>
-      <c r="P31" s="48"/>
+      <c r="P31" s="43"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -1956,7 +2008,7 @@
       <c r="M32" s="19"/>
       <c r="N32" s="12"/>
       <c r="O32" s="25"/>
-      <c r="P32" s="48"/>
+      <c r="P32" s="43"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -1983,7 +2035,7 @@
       <c r="M33" s="15"/>
       <c r="N33" s="12"/>
       <c r="O33" s="25"/>
-      <c r="P33" s="48"/>
+      <c r="P33" s="43"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -2010,7 +2062,7 @@
       <c r="M34" s="15"/>
       <c r="N34" s="12"/>
       <c r="O34" s="25"/>
-      <c r="P34" s="48"/>
+      <c r="P34" s="43"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -2037,7 +2089,7 @@
       <c r="M35" s="15"/>
       <c r="N35" s="12"/>
       <c r="O35" s="25"/>
-      <c r="P35" s="48"/>
+      <c r="P35" s="43"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2064,7 +2116,7 @@
       <c r="M36" s="15"/>
       <c r="N36" s="12"/>
       <c r="O36" s="25"/>
-      <c r="P36" s="48"/>
+      <c r="P36" s="43"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2091,7 +2143,7 @@
       <c r="M37" s="15"/>
       <c r="N37" s="12"/>
       <c r="O37" s="25"/>
-      <c r="P37" s="48"/>
+      <c r="P37" s="43"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -2118,7 +2170,7 @@
       <c r="M38" s="15"/>
       <c r="N38" s="12"/>
       <c r="O38" s="25"/>
-      <c r="P38" s="48"/>
+      <c r="P38" s="43"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -2145,7 +2197,7 @@
       <c r="M39" s="15"/>
       <c r="N39" s="12"/>
       <c r="O39" s="25"/>
-      <c r="P39" s="48"/>
+      <c r="P39" s="43"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -2172,7 +2224,7 @@
       <c r="M40" s="15"/>
       <c r="N40" s="12"/>
       <c r="O40" s="25"/>
-      <c r="P40" s="48"/>
+      <c r="P40" s="43"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -2199,7 +2251,7 @@
       <c r="M41" s="15"/>
       <c r="N41" s="12"/>
       <c r="O41" s="25"/>
-      <c r="P41" s="48"/>
+      <c r="P41" s="43"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -2226,7 +2278,7 @@
       <c r="M42" s="19"/>
       <c r="N42" s="12"/>
       <c r="O42" s="25"/>
-      <c r="P42" s="48"/>
+      <c r="P42" s="43"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -2253,7 +2305,7 @@
       <c r="M43" s="19"/>
       <c r="N43" s="12"/>
       <c r="O43" s="25"/>
-      <c r="P43" s="48"/>
+      <c r="P43" s="43"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -2280,7 +2332,7 @@
       <c r="M44" s="19"/>
       <c r="N44" s="12"/>
       <c r="O44" s="25"/>
-      <c r="P44" s="48"/>
+      <c r="P44" s="43"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -2307,7 +2359,7 @@
       <c r="M45" s="19"/>
       <c r="N45" s="12"/>
       <c r="O45" s="25"/>
-      <c r="P45" s="48"/>
+      <c r="P45" s="43"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -2334,7 +2386,7 @@
       <c r="M46" s="19"/>
       <c r="N46" s="12"/>
       <c r="O46" s="25"/>
-      <c r="P46" s="48"/>
+      <c r="P46" s="43"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -2361,7 +2413,7 @@
       <c r="M47" s="19"/>
       <c r="N47" s="12"/>
       <c r="O47" s="25"/>
-      <c r="P47" s="48"/>
+      <c r="P47" s="43"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -2388,7 +2440,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="12"/>
       <c r="O48" s="25"/>
-      <c r="P48" s="48"/>
+      <c r="P48" s="43"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -2415,7 +2467,7 @@
       <c r="M49" s="19"/>
       <c r="N49" s="12"/>
       <c r="O49" s="25"/>
-      <c r="P49" s="48"/>
+      <c r="P49" s="43"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -2442,7 +2494,7 @@
       <c r="M50" s="19"/>
       <c r="N50" s="12"/>
       <c r="O50" s="25"/>
-      <c r="P50" s="48"/>
+      <c r="P50" s="43"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -2475,7 +2527,7 @@
       <c r="M51" s="15"/>
       <c r="N51" s="12"/>
       <c r="O51" s="25"/>
-      <c r="P51" s="48"/>
+      <c r="P51" s="43"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -2502,7 +2554,7 @@
       <c r="M52" s="15"/>
       <c r="N52" s="12"/>
       <c r="O52" s="25"/>
-      <c r="P52" s="48"/>
+      <c r="P52" s="43"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -2529,7 +2581,7 @@
       <c r="M53" s="15"/>
       <c r="N53" s="12"/>
       <c r="O53" s="25"/>
-      <c r="P53" s="48"/>
+      <c r="P53" s="43"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -2556,7 +2608,7 @@
       <c r="M54" s="15"/>
       <c r="N54" s="12"/>
       <c r="O54" s="25"/>
-      <c r="P54" s="48"/>
+      <c r="P54" s="43"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -2583,7 +2635,7 @@
       <c r="M55" s="15"/>
       <c r="N55" s="12"/>
       <c r="O55" s="25"/>
-      <c r="P55" s="48"/>
+      <c r="P55" s="43"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -2610,7 +2662,7 @@
       <c r="M56" s="15"/>
       <c r="N56" s="12"/>
       <c r="O56" s="25"/>
-      <c r="P56" s="48"/>
+      <c r="P56" s="43"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -2637,7 +2689,7 @@
       <c r="M57" s="15"/>
       <c r="N57" s="12"/>
       <c r="O57" s="25"/>
-      <c r="P57" s="48"/>
+      <c r="P57" s="43"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -2664,7 +2716,7 @@
       <c r="M58" s="15"/>
       <c r="N58" s="12"/>
       <c r="O58" s="25"/>
-      <c r="P58" s="48"/>
+      <c r="P58" s="43"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -2691,7 +2743,7 @@
       <c r="M59" s="15"/>
       <c r="N59" s="12"/>
       <c r="O59" s="25"/>
-      <c r="P59" s="48"/>
+      <c r="P59" s="43"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -2710,7 +2762,7 @@
         <v>35</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="37"/>
@@ -2924,16 +2976,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15.5">
       <c r="A2" s="4" t="s">
@@ -3731,15 +3783,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15.5">
       <c r="A2" s="4" t="s">
@@ -4534,4 +4586,826 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A95C724-7C9E-4A7F-92D9-A9195EAD89B3}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:I69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="32.08203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="26.75" style="38" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.5">
+      <c r="A1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.5">
+      <c r="A2" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="15.5">
+      <c r="A3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="22">
+        <v>6</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="21">
+        <v>7</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="D62" s="37"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="D63" s="37"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="D64" s="37"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="4:9">
+      <c r="D65" s="37"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="4:9">
+      <c r="D66" s="37"/>
+    </row>
+    <row r="67" spans="4:9">
+      <c r="D67" s="37"/>
+    </row>
+    <row r="68" spans="4:9">
+      <c r="D68" s="37"/>
+    </row>
+    <row r="69" spans="4:9">
+      <c r="D69" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/code/Jichong/moduel_dictionary_models.xlsx
+++ b/code/Jichong/moduel_dictionary_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb576802\Documents\non-work\GWU\Capstone\Github folders\Capstone\code\Jichong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2C6A9C-C126-4199-A2AE-3C4F1C209EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A476730-3163-40D9-BE0F-E6784E267106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F449D38-8939-4DD5-8418-8E65FDF5F64A}"/>
+    <workbookView xWindow="57480" yWindow="-2835" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2F449D38-8939-4DD5-8418-8E65FDF5F64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Option3" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
   <si>
     <t>Class</t>
   </si>
@@ -327,10 +327,58 @@
     <t>featuretools</t>
   </si>
   <si>
-    <t>Class - feature engineering</t>
-  </si>
-  <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>class - data pre-processing</t>
+  </si>
+  <si>
+    <t>class - baseline models</t>
+  </si>
+  <si>
+    <t>class - feature selection</t>
+  </si>
+  <si>
+    <t>class - feature engineering</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>file_compare()</t>
+  </si>
+  <si>
+    <t>glossary()</t>
+  </si>
+  <si>
+    <t>datasci</t>
+  </si>
+  <si>
+    <t>.size()</t>
+  </si>
+  <si>
+    <t>.recode()</t>
+  </si>
+  <si>
+    <t>.missingReport()</t>
+  </si>
+  <si>
+    <t>.remove_all_nan_columns()</t>
+  </si>
+  <si>
+    <t>.impute_all()</t>
+  </si>
+  <si>
+    <t>.imputation()</t>
+  </si>
+  <si>
+    <t>.standardize()</t>
+  </si>
+  <si>
+    <t>.eda()</t>
+  </si>
+  <si>
+    <t>.featureSelection()</t>
   </si>
 </sst>
 </file>
@@ -412,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +521,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -495,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -604,7 +676,19 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -622,19 +706,22 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -956,37 +1043,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="49" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" ht="15.5">
       <c r="A2" s="20" t="s">
@@ -2976,16 +3063,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15.5">
       <c r="A2" s="4" t="s">
@@ -3783,15 +3870,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15.5">
       <c r="A2" s="4" t="s">
@@ -4593,817 +4680,872 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="32.08203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="31"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.9140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="32.08203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="38" customWidth="1"/>
+    <col min="7" max="7" width="39.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="46"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.5">
-      <c r="A2" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="47" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15.5">
+      <c r="A1" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15.5">
+      <c r="A2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="14">
+      <c r="A3" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="15.5">
-      <c r="A3" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="57"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="28" t="s">
+      <c r="G3" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="52"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="28" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="28"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="28" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="52"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="28" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="28" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="28" t="s">
+      <c r="H10" s="28"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="28" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="28" t="s">
+      <c r="H12" s="52"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="28" t="s">
+      <c r="H13" s="52"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="28" t="s">
+      <c r="H14" s="52"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="28" t="s">
+      <c r="H15" s="52"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="28" t="s">
+      <c r="H16" s="52"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="28" t="s">
+      <c r="H17" s="52"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="28" t="s">
+      <c r="H18" s="52"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="28" t="s">
+      <c r="H19" s="52"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="28" t="s">
+      <c r="H20" s="52"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="54"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="54"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="54"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="54"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="54"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="54"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="54"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="54"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="54"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="54"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="54"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32" s="18"/>
       <c r="D32" s="18"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="54"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="18"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="54"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="3:11">
+      <c r="C34" s="18"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="54"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="3:11">
+      <c r="C35" s="18"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="54"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="3:11">
+      <c r="C36" s="18"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="54"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="3:11">
+      <c r="C37" s="18"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="54"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="C38" s="18"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="54"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="C39" s="18"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="54"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="3:11">
+      <c r="C40" s="18"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="54"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="3:11">
+      <c r="C41" s="18"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="54"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="18"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="54"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="54"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="3:11">
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="3:11">
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="22">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="3:11">
+      <c r="C52" s="22">
         <v>6</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="3:11">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="3:11">
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="3:11">
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="3:11">
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="3:11">
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="3:11">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="3:11">
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="3:11">
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="52"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="21">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="3:11">
+      <c r="C61" s="21">
         <v>7</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="D62" s="37"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="3:11">
+      <c r="F62" s="37"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="D63" s="37"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="3:11">
+      <c r="F63" s="37"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="D64" s="37"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="3:11">
+      <c r="F64" s="37"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="4:9">
-      <c r="D65" s="37"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="6:11">
+      <c r="F65" s="37"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="4:9">
-      <c r="D66" s="37"/>
-    </row>
-    <row r="67" spans="4:9">
-      <c r="D67" s="37"/>
-    </row>
-    <row r="68" spans="4:9">
-      <c r="D68" s="37"/>
-    </row>
-    <row r="69" spans="4:9">
-      <c r="D69" s="37"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="6:11">
+      <c r="F66" s="37"/>
+    </row>
+    <row r="67" spans="6:11">
+      <c r="F67" s="37"/>
+    </row>
+    <row r="68" spans="6:11">
+      <c r="F68" s="37"/>
+    </row>
+    <row r="69" spans="6:11">
+      <c r="F69" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
